--- a/biology/Biologie cellulaire et moléculaire/Lluis_Quintana-Murci/Lluis_Quintana-Murci.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lluis_Quintana-Murci/Lluis_Quintana-Murci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lluis Quintana-Murci, né le 26 mars 1970 à Palma de Majorque, dans les îles Baléares, en Espagne, est un biologiste et généticien des populations franco-espagnol, connu pour ses recherches sur la diversité du génome à travers les populations humaines et sa relation avec l'exposition aux maladies infectieuses. Directeur de recherche à l'Institut Pasteur, il est professeur au Collège de France et membre de l'Académie des sciences.
 </t>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu sa licence de biologie en 1993 à l'université de Barcelone, en Espagne, Lluis Quintana-Murci obtient en 1999 un doctorat en génétique humaine à l'université de Pavie, en Italie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu sa licence de biologie en 1993 à l'université de Barcelone, en Espagne, Lluis Quintana-Murci obtient en 1999 un doctorat en génétique humaine à l'université de Pavie, en Italie.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après un stage postdoctoral à l’Institut Pasteur, un séjour au sein de l'université d'Oxford (Royaume-Uni, 2000), puis de l'université de l'Arizona (États-Unis, 2002), Lluis Quintana-Murci entre en 2001 au CNRS, comme chargé de recherches jusqu'en 2007[1].
-Il obtient en 2005 son habilitation à diriger des recherches à Sorbonne-Université, à Paris. Il a été directeur de recherches au CNRS et à l'Institut Pasteur de 2008 à 2019. Il dirige l’unité de génétique évolutive humaine à l’Institut Pasteur depuis 2007[1].
-Il a été également directeur scientifique de l’Institut Pasteur en 2016-2017, et professeur invité à l'Université Rockefeller (New York) pendant l’été 2018[1].
-Il est depuis 2019 professeur au Collège de France, où il est titulaire de la chaire Génomique humaine et évolution[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un stage postdoctoral à l’Institut Pasteur, un séjour au sein de l'université d'Oxford (Royaume-Uni, 2000), puis de l'université de l'Arizona (États-Unis, 2002), Lluis Quintana-Murci entre en 2001 au CNRS, comme chargé de recherches jusqu'en 2007.
+Il obtient en 2005 son habilitation à diriger des recherches à Sorbonne-Université, à Paris. Il a été directeur de recherches au CNRS et à l'Institut Pasteur de 2008 à 2019. Il dirige l’unité de génétique évolutive humaine à l’Institut Pasteur depuis 2007.
+Il a été également directeur scientifique de l’Institut Pasteur en 2016-2017, et professeur invité à l'Université Rockefeller (New York) pendant l’été 2018.
+Il est depuis 2019 professeur au Collège de France, où il est titulaire de la chaire Génomique humaine et évolution.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lluis Quintana-Murci est un généticien des populations dont les recherches portent sur l’étude de l’architecture génétique des populations humaines et le rôle de la diversité génétique dans l’adaptation. En particulier, son laboratoire utilise des données génomiques pour déduire l’histoire démographique passée des populations humaines, avec un accent particulier sur l’Afrique et le Pacifique, et pour disséquer les différentes façons dont la sélection naturelle peut agir sur le génome humain. Son équipe s’intéresse particulièrement à l’étude de la pression que les agents pathogènes ont exercée sur les gènes de l’immunité humaine. Au cours des dernières années, son équipe a également corrélé les variations génétiques et épigénétiques dans des populations d’ascendance et de mode de vie différents avec des phénotypes moléculaires liés aux réponses immunitaires, afin d’identifier les mécanismes qui ont été cruciaux pour notre survie passée et présente contre l’infection. Dans ce contexte, ses recherches portent sur l’étude des facteurs génétiques, épigénétiques et environnementaux qui provoquent la variation des réponses immunitaires, car cela permet de jeter les bases d’une génomique personnalisée liée aux maladies infectieuses et immunitaires. Son laboratoire combine des approches de génétique moléculaire et de génétique des populations avec la modélisation computationnelle et le développement de nouveaux cadres statistiques.
 Les connaissances fondamentales acquises lors de ces travaux ont des conséquences importantes sur des études de génétique humaine à visée médicale, dont l’objectif est d’identifier les bases génétiques de la résistance ou de la susceptibilité aux maladies infectieuses.
@@ -609,7 +627,9 @@
           <t>Organismes et associations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Élu membre de l'Organisation européenne de biologie moléculaire (2014)
 Élu membre de l'Academia Europaea (2014)
@@ -641,10 +661,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Médaille de bronze du CNRS (2008)[2]
-Prix Georges, Jacques et Elias Canetti de l'Institut Pasteur (2009)[3]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Médaille de bronze du CNRS (2008)
+Prix Georges, Jacques et Elias Canetti de l'Institut Pasteur (2009)
 Lauréat du Conseil européen de la recherche (2012)
 Médaille d'argent du CNRS (2013)
 Grand prix de médecine et recherche biomédicale “Jean Hamburger”, Ville de Paris (2014)
@@ -681,11 +703,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ouvrages
-Une histoire génétique : notre diversité, notre évolution, notre adaptation, Paris, Collège de France / Fayard, coll. « Leçons inaugurales du Collège de France », n° 295, 2021  (ISBN 978-2-213-71802-6)
-Le Peuple des humains. Sur les traces génétiques des migrations, métissages et adaptations, Paris, éd. Odile Jacob, 2021 « Mieux connaître l'individu, dans le détail génétique de sa constitution, permettra de le soigner avec plus de pertinence et d’acuité. En connaissant mieux la nature et ses mécanismes, on peut les utiliser plus efficacement pour remédier à nos faiblesses ou lutter contre les agents pathogènes causant les maladies infectieuses[4]. »
-Articles scientifiques majeurs
-Choin J, Mendoza-Revilla J, Arauna LR, Cuadros-Espinoza S, Cassar O, Larena M, Min-Shan Ko A, Harmant C, Laurent R, Verdu P, Laval G, Boland A, Olaso R, Deleuze JF, Valentin F, Ko YC, Jakobsson M, Gessain A, Excoffier L, Stoneking M, Patin E, Quintana-Murci L (2021) « Genomic insights into population history and biological adaptation in Oceania ». Nature 592(7855):583-589 PMID 33854233
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une histoire génétique : notre diversité, notre évolution, notre adaptation, Paris, Collège de France / Fayard, coll. « Leçons inaugurales du Collège de France », n° 295, 2021  (ISBN 978-2-213-71802-6)
+Le Peuple des humains. Sur les traces génétiques des migrations, métissages et adaptations, Paris, éd. Odile Jacob, 2021 « Mieux connaître l'individu, dans le détail génétique de sa constitution, permettra de le soigner avec plus de pertinence et d’acuité. En connaissant mieux la nature et ses mécanismes, on peut les utiliser plus efficacement pour remédier à nos faiblesses ou lutter contre les agents pathogènes causant les maladies infectieuses. »</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lluis_Quintana-Murci</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lluis_Quintana-Murci</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Articles scientifiques majeurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Choin J, Mendoza-Revilla J, Arauna LR, Cuadros-Espinoza S, Cassar O, Larena M, Min-Shan Ko A, Harmant C, Laurent R, Verdu P, Laval G, Boland A, Olaso R, Deleuze JF, Valentin F, Ko YC, Jakobsson M, Gessain A, Excoffier L, Stoneking M, Patin E, Quintana-Murci L (2021) « Genomic insights into population history and biological adaptation in Oceania ». Nature 592(7855):583-589 PMID 33854233
 Kerner G, Laval G, Patin E, Boisson-Dupuis S, Abel L, Casanova JL, Quintana-Murci L (2021) « Human ancient DNA analyses reveal the high burden of tuberculosis in Europeans over the last 2,000 years ». American Journal of Human Genetics 108(3):517-524 PMID 33667394
 Quintana-Murci L (2019) « Human Immunology through the Lens of Evolutionary Genetics ». Cell 177(1):184-199 PMID 30901539
 Piasecka B, Duffy D, Urrutia A, Quach H, Patin E, Posseme C, Bergstedt J, Charbit B, Rouilly V, MacPherson C, Hasan M, Albaud B, Gentien D, Fellay J, Albert M, Quintana-Murci L. &amp; the Milieu Intérieur Consortium (2018). « Distinctive Roles of Age, Sex and Genetics in Shaping Transcriptional Variation of Human Immune Responses to Microbial Challenges ». Proceedings of the National Academy of Sciences USA 115(3):E488-E497 PMID 29282317
